--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3514.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3514.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.479698282886336</v>
+        <v>2.39011287689209</v>
       </c>
       <c r="B1">
-        <v>2.741932949858628</v>
+        <v>2.686439514160156</v>
       </c>
       <c r="C1">
-        <v>3.515390519491306</v>
+        <v>2.042529821395874</v>
       </c>
       <c r="D1">
-        <v>3.909800558614642</v>
+        <v>1.908952355384827</v>
       </c>
       <c r="E1">
-        <v>1.220965752494531</v>
+        <v>1.943543910980225</v>
       </c>
     </row>
   </sheetData>
